--- a/teaching/traditional_assets/database/data/liechtenstein/liechtenstein_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/liechtenstein/liechtenstein_bank_money_center.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0284</v>
+        <v>0.0665</v>
       </c>
       <c r="E2">
-        <v>0.0389</v>
+        <v>0.108</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,103 +603,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.0003675178690455209</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.000335364131789187</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>95.7</v>
+        <v>121.2</v>
       </c>
       <c r="L2">
-        <v>0.2150561797752809</v>
+        <v>0.2614886731391586</v>
       </c>
       <c r="M2">
-        <v>82.80000000000001</v>
+        <v>80.44</v>
       </c>
       <c r="N2">
-        <v>0.04201339557540086</v>
+        <v>0.04442971554819111</v>
       </c>
       <c r="O2">
-        <v>0.865203761755486</v>
+        <v>0.6636963696369637</v>
       </c>
       <c r="P2">
-        <v>65.90000000000001</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="Q2">
-        <v>0.0334381976862188</v>
+        <v>0.0391604529135598</v>
       </c>
       <c r="R2">
-        <v>0.6886102403343783</v>
+        <v>0.584983498349835</v>
       </c>
       <c r="S2">
-        <v>16.90000000000001</v>
+        <v>9.539999999999992</v>
       </c>
       <c r="T2">
-        <v>0.2041062801932368</v>
+        <v>0.1185977125808055</v>
       </c>
       <c r="U2">
-        <v>6013.6</v>
+        <v>7778.4</v>
       </c>
       <c r="V2">
-        <v>3.051349705703268</v>
+        <v>4.296271748135874</v>
       </c>
       <c r="W2">
-        <v>0.05423325399523972</v>
+        <v>0.06298721546616776</v>
       </c>
       <c r="X2">
-        <v>0.06862902853192475</v>
+        <v>0.07525485964080228</v>
       </c>
       <c r="Y2">
-        <v>-0.01439577453668503</v>
+        <v>-0.01226764417463452</v>
       </c>
       <c r="Z2">
-        <v>-2.576987162234506</v>
+        <v>-0.451050992604126</v>
       </c>
       <c r="AA2">
-        <v>0.0008642290622946559</v>
+        <v>-0</v>
       </c>
       <c r="AB2">
-        <v>0.04183886200687481</v>
+        <v>0.03513010433165432</v>
       </c>
       <c r="AC2">
-        <v>-0.04097463294458015</v>
+        <v>-0.03513010433165432</v>
       </c>
       <c r="AD2">
-        <v>3061.8</v>
+        <v>3963.2</v>
       </c>
       <c r="AE2">
-        <v>14.31772725862628</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>3076.117727258626</v>
+        <v>3963.2</v>
       </c>
       <c r="AG2">
-        <v>-2937.482272741374</v>
+        <v>-3815.2</v>
       </c>
       <c r="AH2">
-        <v>0.6095042347618187</v>
+        <v>0.6864229177130783</v>
       </c>
       <c r="AI2">
-        <v>0.5999584747307652</v>
+        <v>0.6473172723560636</v>
       </c>
       <c r="AJ2">
-        <v>3.038725707063077</v>
+        <v>1.903127650022447</v>
       </c>
       <c r="AK2">
-        <v>3.31401288482048</v>
+        <v>2.304003864967691</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>1134</v>
-      </c>
-      <c r="AP2">
-        <v>-1087.95639731162</v>
       </c>
     </row>
     <row r="3">
@@ -719,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0284</v>
+        <v>0.0665</v>
       </c>
       <c r="E3">
-        <v>0.0389</v>
+        <v>0.108</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,103 +725,97 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-0.0003675178690455209</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.000335364131789187</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>95.7</v>
+        <v>121.2</v>
       </c>
       <c r="L3">
-        <v>0.2150561797752809</v>
+        <v>0.2614886731391586</v>
       </c>
       <c r="M3">
-        <v>82.80000000000001</v>
+        <v>80.44</v>
       </c>
       <c r="N3">
-        <v>0.04201339557540086</v>
+        <v>0.04442971554819111</v>
       </c>
       <c r="O3">
-        <v>0.865203761755486</v>
+        <v>0.6636963696369637</v>
       </c>
       <c r="P3">
-        <v>65.90000000000001</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="Q3">
-        <v>0.0334381976862188</v>
+        <v>0.0391604529135598</v>
       </c>
       <c r="R3">
-        <v>0.6886102403343783</v>
+        <v>0.584983498349835</v>
       </c>
       <c r="S3">
-        <v>16.90000000000001</v>
+        <v>9.539999999999992</v>
       </c>
       <c r="T3">
-        <v>0.2041062801932368</v>
+        <v>0.1185977125808055</v>
       </c>
       <c r="U3">
-        <v>6013.6</v>
+        <v>7778.4</v>
       </c>
       <c r="V3">
-        <v>3.051349705703268</v>
+        <v>4.296271748135874</v>
       </c>
       <c r="W3">
-        <v>0.05423325399523972</v>
+        <v>0.06298721546616776</v>
       </c>
       <c r="X3">
-        <v>0.06862902853192475</v>
+        <v>0.07525485964080228</v>
       </c>
       <c r="Y3">
-        <v>-0.01439577453668503</v>
+        <v>-0.01226764417463452</v>
       </c>
       <c r="Z3">
-        <v>-2.576987162234506</v>
+        <v>-0.451050992604126</v>
       </c>
       <c r="AA3">
-        <v>0.0008642290622946559</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.04183886200687481</v>
+        <v>0.03513010433165432</v>
       </c>
       <c r="AC3">
-        <v>-0.04097463294458015</v>
+        <v>-0.03513010433165432</v>
       </c>
       <c r="AD3">
-        <v>3061.8</v>
+        <v>3963.2</v>
       </c>
       <c r="AE3">
-        <v>14.31772725862628</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>3076.117727258626</v>
+        <v>3963.2</v>
       </c>
       <c r="AG3">
-        <v>-2937.482272741374</v>
+        <v>-3815.2</v>
       </c>
       <c r="AH3">
-        <v>0.6095042347618187</v>
+        <v>0.6864229177130783</v>
       </c>
       <c r="AI3">
-        <v>0.5999584747307652</v>
+        <v>0.6473172723560636</v>
       </c>
       <c r="AJ3">
-        <v>3.038725707063077</v>
+        <v>1.903127650022447</v>
       </c>
       <c r="AK3">
-        <v>3.31401288482048</v>
+        <v>2.304003864967691</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>1134</v>
-      </c>
-      <c r="AP3">
-        <v>-1087.95639731162</v>
       </c>
     </row>
   </sheetData>
